--- a/Attribute.xlsx
+++ b/Attribute.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5206904A-B092-40C8-BD69-1F65FDB10C0F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F06EF3E9-9F91-4559-9C32-2244C4562195}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4824" yWindow="3948" windowWidth="21516" windowHeight="10296" xr2:uid="{241531F5-2F97-41A3-A6BC-E9D0362B4A08}"/>
+    <workbookView xWindow="1524" yWindow="1596" windowWidth="21516" windowHeight="10296" xr2:uid="{241531F5-2F97-41A3-A6BC-E9D0362B4A08}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="80">
   <si>
     <t>Sub-goal</t>
   </si>
@@ -165,9 +165,6 @@
     <t>Male, Female</t>
   </si>
   <si>
-    <t>Single, Married, Separated</t>
-  </si>
-  <si>
     <t>Chinese, Malay, Indian, Others</t>
   </si>
   <si>
@@ -253,6 +250,27 @@
   </si>
   <si>
     <t>Treat4</t>
+  </si>
+  <si>
+    <t>Patient1</t>
+  </si>
+  <si>
+    <t>DrHong</t>
+  </si>
+  <si>
+    <t>Patient</t>
+  </si>
+  <si>
+    <t>MedicalOfficer</t>
+  </si>
+  <si>
+    <t>PreScreenR</t>
+  </si>
+  <si>
+    <t>PreScreenResult</t>
+  </si>
+  <si>
+    <t>Single, Married, Separated, Widowed</t>
   </si>
 </sst>
 </file>
@@ -303,7 +321,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="distributed"/>
@@ -312,6 +330,9 @@
       <alignment horizontal="distributed" vertical="distributed"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="distributed"/>
     </xf>
   </cellXfs>
@@ -628,23 +649,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5A9D1F5-0FB0-43AE-B292-3A0FA0BC12B5}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C15" sqref="A1:G23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" customWidth="1"/>
     <col min="3" max="3" width="23.5546875" customWidth="1"/>
     <col min="4" max="4" width="8.33203125" customWidth="1"/>
     <col min="5" max="5" width="9.6640625" customWidth="1"/>
     <col min="7" max="7" width="17.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -663,7 +684,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -686,7 +707,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
@@ -706,10 +727,10 @@
         <v>37</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="2" t="s">
         <v>14</v>
@@ -727,10 +748,16 @@
         <v>37</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="2" t="s">
         <v>15</v>
@@ -748,10 +775,16 @@
         <v>37</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="2" t="s">
         <v>16</v>
@@ -763,16 +796,16 @@
         <v>38</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>37</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="2" t="s">
         <v>17</v>
@@ -784,16 +817,16 @@
         <v>38</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>37</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="2" t="s">
         <v>18</v>
@@ -805,16 +838,16 @@
         <v>38</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>37</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>19</v>
       </c>
@@ -828,16 +861,16 @@
         <v>39</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="2" t="s">
         <v>21</v>
@@ -849,16 +882,16 @@
         <v>39</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>22</v>
       </c>
@@ -872,16 +905,16 @@
         <v>39</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="2" t="s">
         <v>24</v>
@@ -893,16 +926,16 @@
         <v>39</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="2" t="s">
         <v>25</v>
@@ -914,16 +947,16 @@
         <v>39</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="2" t="s">
         <v>26</v>
@@ -935,16 +968,16 @@
         <v>39</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="2" t="s">
         <v>27</v>
@@ -956,16 +989,16 @@
         <v>39</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="2" t="s">
         <v>28</v>
@@ -977,13 +1010,13 @@
         <v>39</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="72" x14ac:dyDescent="0.3">
@@ -998,13 +1031,13 @@
         <v>39</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -1021,13 +1054,13 @@
         <v>40</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>37</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -1044,7 +1077,7 @@
         <v>40</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>37</v>
@@ -1053,12 +1086,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>37</v>
@@ -1067,7 +1100,7 @@
         <v>40</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>37</v>
@@ -1078,10 +1111,10 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>37</v>
@@ -1090,7 +1123,7 @@
         <v>40</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>37</v>
@@ -1101,10 +1134,10 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>37</v>
@@ -1113,7 +1146,7 @@
         <v>40</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>37</v>
@@ -1124,10 +1157,10 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>37</v>
@@ -1136,12 +1169,35 @@
         <v>40</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>37</v>
       </c>
       <c r="G23" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>37</v>
       </c>
     </row>
